--- a/Proyecto_Final/Documentacion_G5/1. ELICITACION/1.3 HISTORIA DE USUARIO/matriz/Matriz_Usuario_V5.xlsx
+++ b/Proyecto_Final/Documentacion_G5/1. ELICITACION/1.3 HISTORIA DE USUARIO/matriz/Matriz_Usuario_V5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G406\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9760651D-9CD8-4C0B-AF69-1D47A1EDF6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866C1F99-FFFB-46D3-9910-A5BF4F384D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1279,7 +1279,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1400,7 +1400,7 @@
         <v>21</v>
       </c>
       <c r="I6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>22</v>
